--- a/data/trans_bre/P2A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Edad-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna limitación</t>
+          <t>Hogares con personas con alguna condición</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 18,25</t>
+          <t>6,65; 17,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,81; 16,7</t>
+          <t>4,93; 17,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 8,43</t>
+          <t>-3,94; 8,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 8,78</t>
+          <t>-8,75; 9,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,85; 98,96</t>
+          <t>28,57; 96,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,76; 75,89</t>
+          <t>16,82; 78,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 37,37</t>
+          <t>-14,24; 36,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 11,72</t>
+          <t>-9,93; 11,84</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,16; 17,49</t>
+          <t>7,43; 17,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 13,66</t>
+          <t>3,14; 13,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 14,41</t>
+          <t>4,0; 14,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 0,45</t>
+          <t>-14,18; 1,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,82; 73,13</t>
+          <t>26,96; 75,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,9; 47,51</t>
+          <t>9,18; 49,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,07; 64,73</t>
+          <t>13,84; 63,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 0,41</t>
+          <t>-16,56; 1,16</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,56; 17,21</t>
+          <t>6,19; 16,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,24; 15,96</t>
+          <t>5,87; 16,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,77; 15,88</t>
+          <t>5,21; 15,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 0,21</t>
+          <t>-9,65; -0,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,41; 58,08</t>
+          <t>17,42; 56,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,92; 50,24</t>
+          <t>15,56; 52,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,34; 57,64</t>
+          <t>15,88; 57,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 0,26</t>
+          <t>-11,47; -0,17</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 14,17</t>
+          <t>1,57; 13,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,09; 16,37</t>
+          <t>4,69; 16,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 10,62</t>
+          <t>-0,87; 10,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,88; -2,99</t>
+          <t>-12,83; -2,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 33,52</t>
+          <t>3,35; 32,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,38; 40,65</t>
+          <t>9,69; 42,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 24,44</t>
+          <t>-1,92; 24,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,37; -3,86</t>
+          <t>-15,26; -3,25</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 2,62</t>
+          <t>-11,74; 2,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 5,7</t>
+          <t>-7,92; 5,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 15,88</t>
+          <t>2,79; 15,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,36; -0,01</t>
+          <t>-10,69; -0,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 4,69</t>
+          <t>-18,85; 5,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 10,34</t>
+          <t>-13,18; 11,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,1; 30,92</t>
+          <t>4,71; 30,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,68; -0,02</t>
+          <t>-15,03; -0,91</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,16; 19,51</t>
+          <t>7,95; 19,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,29; 11,58</t>
+          <t>0,14; 11,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 12,43</t>
+          <t>1,87; 12,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 13,56</t>
+          <t>-4,03; 13,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,39; 38,83</t>
+          <t>13,76; 38,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 21,14</t>
+          <t>0,3; 19,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,91; 21,47</t>
+          <t>2,89; 20,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 22,56</t>
+          <t>-6,46; 22,44</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,58</t>
+          <t>8,91; 13,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,63; 11,6</t>
+          <t>6,86; 12,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,59; 11,35</t>
+          <t>6,34; 11,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,85; -1,19</t>
+          <t>-6,68; -1,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,0; 37,18</t>
+          <t>22,94; 37,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,86; 29,22</t>
+          <t>16,2; 30,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,75; 28,45</t>
+          <t>15,14; 28,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,92; -1,57</t>
+          <t>-8,75; -1,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,65; 17,65</t>
+          <t>7,03; 17,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 17,44</t>
+          <t>5,22; 17,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 8,52</t>
+          <t>-3,9; 8,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,57; 96,84</t>
+          <t>28,83; 98,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,82; 78,48</t>
+          <t>18,57; 76,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 36,95</t>
+          <t>-13,18; 38,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,43; 17,93</t>
+          <t>7,07; 17,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 13,9</t>
+          <t>2,67; 13,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 14,29</t>
+          <t>3,85; 14,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,96; 75,86</t>
+          <t>24,76; 72,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 49,29</t>
+          <t>7,94; 47,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,84; 63,72</t>
+          <t>14,23; 63,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 16,89</t>
+          <t>6,24; 16,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 16,75</t>
+          <t>6,06; 16,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 15,88</t>
+          <t>6,2; 16,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,42; 56,61</t>
+          <t>16,65; 56,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,56; 52,62</t>
+          <t>16,69; 53,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,88; 57,65</t>
+          <t>18,75; 59,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 13,74</t>
+          <t>1,56; 14,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 16,85</t>
+          <t>4,24; 16,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 10,69</t>
+          <t>-0,7; 10,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 32,57</t>
+          <t>2,95; 34,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,69; 42,24</t>
+          <t>8,39; 39,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 24,31</t>
+          <t>-1,68; 24,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 2,89</t>
+          <t>-11,37; 2,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 5,97</t>
+          <t>-7,93; 5,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 15,79</t>
+          <t>2,75; 15,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 5,32</t>
+          <t>-18,4; 5,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 11,45</t>
+          <t>-13,27; 9,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,71; 30,75</t>
+          <t>5,14; 30,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,95; 19,24</t>
+          <t>7,71; 18,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 11,02</t>
+          <t>-0,2; 11,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,87; 12,0</t>
+          <t>1,26; 12,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,76; 38,3</t>
+          <t>13,47; 37,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 19,55</t>
+          <t>-0,31; 19,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,89; 20,18</t>
+          <t>1,92; 20,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,91; 13,65</t>
+          <t>8,84; 13,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 12,02</t>
+          <t>6,71; 11,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,34; 11,33</t>
+          <t>6,38; 11,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,94; 37,47</t>
+          <t>22,37; 37,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,2; 30,45</t>
+          <t>16,05; 29,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,14; 28,41</t>
+          <t>14,82; 29,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P2A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 17,8</t>
+          <t>6,98; 18,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,22; 17,51</t>
+          <t>4,81; 16,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 8,59</t>
+          <t>-4,09; 8,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 9,02</t>
+          <t>-8,24; 8,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,83; 98,34</t>
+          <t>28,85; 98,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,57; 76,98</t>
+          <t>17,76; 75,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 38,79</t>
+          <t>-13,64; 37,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 11,84</t>
+          <t>-9,48; 11,72</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 17,46</t>
+          <t>7,16; 17,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 13,51</t>
+          <t>2,63; 13,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 14,56</t>
+          <t>4,07; 14,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 1,03</t>
+          <t>-15,09; 0,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,76; 72,01</t>
+          <t>24,82; 73,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,94; 47,8</t>
+          <t>7,9; 47,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,23; 63,27</t>
+          <t>15,07; 64,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 1,16</t>
+          <t>-17,22; 0,41</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,24; 16,99</t>
+          <t>6,56; 17,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 16,38</t>
+          <t>6,24; 15,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,2; 16,17</t>
+          <t>5,77; 15,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,65; -0,13</t>
+          <t>-9,56; 0,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,65; 56,07</t>
+          <t>18,41; 58,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,69; 53,19</t>
+          <t>16,92; 50,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,75; 59,23</t>
+          <t>16,34; 57,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,47; -0,17</t>
+          <t>-11,27; 0,26</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 14,27</t>
+          <t>1,97; 14,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 16,22</t>
+          <t>4,09; 16,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 10,49</t>
+          <t>-1,53; 10,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,83; -2,54</t>
+          <t>-12,88; -2,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 34,29</t>
+          <t>4,4; 33,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,39; 39,48</t>
+          <t>9,38; 40,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 24,21</t>
+          <t>-3,05; 24,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,26; -3,25</t>
+          <t>-15,37; -3,86</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 2,84</t>
+          <t>-11,13; 2,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 5,19</t>
+          <t>-8,19; 5,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,75; 15,26</t>
+          <t>2,93; 15,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,69; -0,57</t>
+          <t>-10,36; -0,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 5,09</t>
+          <t>-17,69; 4,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 9,48</t>
+          <t>-13,54; 10,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,14; 30,01</t>
+          <t>5,1; 30,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,03; -0,91</t>
+          <t>-14,68; -0,02</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,71; 18,8</t>
+          <t>8,16; 19,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 11,07</t>
+          <t>0,29; 11,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 12,18</t>
+          <t>1,85; 12,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 13,44</t>
+          <t>-4,15; 13,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,47; 37,25</t>
+          <t>14,39; 38,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 19,69</t>
+          <t>0,51; 21,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 20,19</t>
+          <t>2,91; 21,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 22,44</t>
+          <t>-6,68; 22,56</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,84; 13,76</t>
+          <t>8,68; 13,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,71; 11,49</t>
+          <t>6,63; 11,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,38; 11,53</t>
+          <t>6,59; 11,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,68; -1,24</t>
+          <t>-6,85; -1,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,37; 37,43</t>
+          <t>22,0; 37,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,05; 29,13</t>
+          <t>15,86; 29,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,82; 29,04</t>
+          <t>15,75; 28,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,75; -1,66</t>
+          <t>-8,92; -1,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,44</t>
+          <t>14,82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,19</t>
+          <t>10,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>59,87%</t>
+          <t>60,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>44,7%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>-2,17%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 18,25</t>
+          <t>9,03; 20,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,81; 16,7</t>
+          <t>4,18; 16,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 8,43</t>
+          <t>-2,51; 10,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 8,78</t>
+          <t>-11,06; 9,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,85; 98,96</t>
+          <t>33,34; 96,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,76; 75,89</t>
+          <t>11,76; 56,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 37,37</t>
+          <t>-7,0; 37,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 11,72</t>
+          <t>-33,27; 45,06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,42</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,36</t>
+          <t>11,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>46,91%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>38,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-6,73%</t>
+          <t>-15,17%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,16; 17,49</t>
+          <t>8,3; 19,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 13,66</t>
+          <t>3,5; 14,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 14,41</t>
+          <t>6,38; 17,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 0,45</t>
+          <t>-15,09; 3,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,82; 73,13</t>
+          <t>25,36; 70,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,9; 47,51</t>
+          <t>7,93; 37,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,07; 64,73</t>
+          <t>18,71; 63,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 0,41</t>
+          <t>-48,79; 13,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,96</t>
+          <t>19,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,02</t>
+          <t>14,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,08</t>
+          <t>13,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,19</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>51,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>34,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>36,68%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,27%</t>
+          <t>17,88%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,56; 17,21</t>
+          <t>13,48; 24,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,24; 15,96</t>
+          <t>9,34; 19,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,77; 15,88</t>
+          <t>8,64; 19,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 0,21</t>
+          <t>-3,97; 9,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,41; 58,08</t>
+          <t>34,04; 71,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,92; 50,24</t>
+          <t>20,33; 49,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,34; 57,64</t>
+          <t>21,69; 56,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 0,26</t>
+          <t>-13,49; 43,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>15,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,59</t>
+          <t>21,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,33</t>
+          <t>13,61</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>40,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-9,15%</t>
+          <t>48,57%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 14,17</t>
+          <t>9,12; 21,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,09; 16,37</t>
+          <t>15,44; 27,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 10,62</t>
+          <t>0,62; 12,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,88; -2,99</t>
+          <t>0,76; 29,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 33,52</t>
+          <t>16,62; 45,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,38; 40,65</t>
+          <t>27,79; 55,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 24,44</t>
+          <t>1,05; 23,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,37; -3,86</t>
+          <t>1,61; 206,8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,55</t>
+          <t>15,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,48</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,42%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,85%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-8,06%</t>
+          <t>4,05%</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 2,62</t>
+          <t>-2,66; 8,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 5,7</t>
+          <t>4,93; 15,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 15,88</t>
+          <t>9,92; 21,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,36; -0,01</t>
+          <t>-3,06; 6,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 4,69</t>
+          <t>-3,39; 11,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 10,34</t>
+          <t>6,11; 21,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,1; 30,92</t>
+          <t>14,03; 34,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,68; -0,02</t>
+          <t>-5,51; 12,96</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,65</t>
+          <t>12,03</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>22,8</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>41,98%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,16; 19,51</t>
+          <t>7,08; 18,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,29; 11,58</t>
+          <t>-2,99; 4,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 12,43</t>
+          <t>-2,19; 6,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 13,56</t>
+          <t>9,84; 39,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,39; 38,83</t>
+          <t>8,3; 23,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 21,14</t>
+          <t>-3,12; 4,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,91; 21,47</t>
+          <t>-2,42; 8,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 22,56</t>
+          <t>17,95; 81,25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,21</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,16</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,53%</t>
+          <t>6,04%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,58</t>
+          <t>-1,23; 6,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,63; 11,6</t>
+          <t>-1,07; 5,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,59; 11,35</t>
+          <t>-0,42; 6,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,85; -1,19</t>
+          <t>-0,8; 9,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,0; 37,18</t>
+          <t>-1,27; 7,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,86; 29,22</t>
+          <t>-1,18; 6,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,75; 28,45</t>
+          <t>-0,41; 6,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,92; -1,57</t>
+          <t>-0,96; 13,82</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>15,68</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13,54</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11,52</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9,8</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>32,57%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>24,33%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>22,06%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>25,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13,23; 18,14</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11,17; 16,05</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9,02; 13,72</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 23,07</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>26,86; 38,63</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>19,68; 29,71</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>17,1; 27,02</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>9,89; 72,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P2A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Edad-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna condición</t>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,03; 20,95</t>
+          <t>8,38; 20,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,18; 16,89</t>
+          <t>4,22; 17,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 10,81</t>
+          <t>-2,27; 10,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 9,82</t>
+          <t>-11,81; 9,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,34; 96,19</t>
+          <t>29,62; 94,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,76; 56,5</t>
+          <t>10,89; 55,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 37,15</t>
+          <t>-6,54; 36,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-33,27; 45,06</t>
+          <t>-33,96; 43,0</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,3; 19,56</t>
+          <t>8,43; 18,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,5; 14,38</t>
+          <t>2,88; 14,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,38; 17,52</t>
+          <t>6,3; 17,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 3,62</t>
+          <t>-14,51; 3,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,36; 70,27</t>
+          <t>24,61; 64,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,93; 37,64</t>
+          <t>6,33; 36,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,71; 63,53</t>
+          <t>19,45; 62,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,79; 13,5</t>
+          <t>-46,37; 11,63</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,48; 24,48</t>
+          <t>13,51; 24,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 19,77</t>
+          <t>9,69; 20,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,64; 19,06</t>
+          <t>8,44; 19,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 9,8</t>
+          <t>-2,88; 10,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,04; 71,23</t>
+          <t>33,13; 71,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,33; 49,0</t>
+          <t>21,81; 50,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,69; 56,93</t>
+          <t>21,33; 56,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 43,99</t>
+          <t>-10,02; 44,84</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,12; 21,9</t>
+          <t>9,54; 21,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,44; 27,17</t>
+          <t>15,68; 26,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 12,2</t>
+          <t>0,7; 12,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 29,62</t>
+          <t>1,57; 32,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,62; 45,73</t>
+          <t>17,58; 45,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,79; 55,52</t>
+          <t>28,21; 55,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 23,33</t>
+          <t>0,98; 24,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 206,8</t>
+          <t>4,38; 290,0</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 8,58</t>
+          <t>-2,99; 9,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,93; 15,61</t>
+          <t>5,1; 16,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,92; 21,96</t>
+          <t>10,12; 22,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 6,61</t>
+          <t>-2,35; 7,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 11,74</t>
+          <t>-3,73; 12,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,11; 21,07</t>
+          <t>6,27; 21,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,03; 34,49</t>
+          <t>14,43; 35,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 12,96</t>
+          <t>-4,23; 14,42</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,08; 18,15</t>
+          <t>6,46; 17,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 4,29</t>
+          <t>-3,14; 4,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 6,93</t>
+          <t>-2,15; 6,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,84; 39,29</t>
+          <t>9,26; 37,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,3; 23,76</t>
+          <t>7,58; 22,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 4,66</t>
+          <t>-3,25; 4,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 8,12</t>
+          <t>-2,31; 8,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,95; 81,25</t>
+          <t>16,85; 74,63</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 6,94</t>
+          <t>-0,99; 7,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 5,77</t>
+          <t>-0,81; 5,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 6,19</t>
+          <t>0,02; 7,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 9,41</t>
+          <t>-1,02; 9,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 7,79</t>
+          <t>-1,05; 8,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 6,24</t>
+          <t>-0,78; 6,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 6,81</t>
+          <t>0,03; 7,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 13,82</t>
+          <t>-1,34; 13,8</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13,23; 18,14</t>
+          <t>13,35; 18,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,17; 16,05</t>
+          <t>11,25; 15,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,02; 13,72</t>
+          <t>9,14; 13,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,9; 23,07</t>
+          <t>3,84; 21,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>26,86; 38,63</t>
+          <t>27,26; 38,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,68; 29,71</t>
+          <t>19,91; 29,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,1; 27,02</t>
+          <t>17,13; 26,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,89; 72,41</t>
+          <t>9,4; 65,91</t>
         </is>
       </c>
     </row>
